--- a/Registers.xlsx
+++ b/Registers.xlsx
@@ -538,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK56"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="str">
-        <f t="shared" ref="B3:B55" si="0">"0x"&amp;DEC2HEX(A3,2)</f>
+        <f t="shared" ref="B3:B53" si="0">"0x"&amp;DEC2HEX(A3,2)</f>
         <v>0x01</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1966,7 +1966,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="O27" s="10" t="str">
-        <f t="shared" ref="O27:O29" si="3">"constant "&amp;C27&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A27&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B27&amp;CHAR(9)&amp;"- "&amp;IF(E27="RD","Read",IF(E27="WR","Write",IF(E27="RW","Read and Write",IF(E27="WC","Write and Clear",""))))</f>
+        <f t="shared" ref="O27" si="3">"constant "&amp;C27&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A27&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B27&amp;CHAR(9)&amp;"- "&amp;IF(E27="RD","Read",IF(E27="WR","Write",IF(E27="RW","Read and Write",IF(E27="WC","Write and Clear",""))))</f>
         <v>constant REG_RW_20_ADDR_c			: natural range 0 to 255 :=	32;	-- 0x20	- Read</v>
       </c>
       <c r="P27" s="11" t="str">
@@ -2050,9 +2050,7 @@
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>49</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="C30"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2072,16 +2070,44 @@
       <c r="AC30" s="12"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="C31"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="A31" s="3">
+        <f>A29+16</f>
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x40</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"REG_RW_"&amp;RIGHT(B31,2)</f>
+        <v>REG_RW_40</v>
+      </c>
+      <c r="D31" t="str">
+        <f>C31</f>
+        <v>REG_RW_40</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>D31</f>
+        <v>REG_RW_40</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="O31" s="10" t="str">
+        <f t="shared" ref="O31" si="7">"constant "&amp;C31&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A31&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B31&amp;CHAR(9)&amp;"- "&amp;IF(E31="RD","Read",IF(E31="WR","Write",IF(E31="RW","Read and Write",IF(E31="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_40_ADDR_c			: natural range 0 to 255 :=	64;	-- 0x40	- Read</v>
+      </c>
+      <c r="P31" s="11" t="str">
+        <f t="shared" ref="P31" si="8">C31&amp;"_"&amp;IF(E31="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E31="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B31&amp;CHAR(9)&amp;"- "&amp;IF(E31="RD","Read",IF(E31="WR","Write",IF(E31="RW","Read and Write",IF(E31="WC","Write and Clear",""))))</f>
+        <v>REG_RW_40_i			: in	std_logic_vector(7 downto 0);	-- 0x40	- Read</v>
+      </c>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
@@ -2111,29 +2137,29 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f>A29+16</f>
-        <v>64</v>
+        <f>A31+16</f>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x40</v>
+        <v>0x50</v>
       </c>
       <c r="C33" t="str">
         <f>"REG_RW_"&amp;RIGHT(B33,2)</f>
-        <v>REG_RW_40</v>
+        <v>REG_RW_50</v>
       </c>
       <c r="D33" t="str">
         <f>C33</f>
-        <v>REG_RW_40</v>
+        <v>REG_RW_50</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="15" t="str">
         <f>D33</f>
-        <v>REG_RW_40</v>
+        <v>REG_RW_50</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -2143,65 +2169,41 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="O33" s="10" t="str">
-        <f t="shared" ref="O33" si="7">"constant "&amp;C33&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A33&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B33&amp;CHAR(9)&amp;"- "&amp;IF(E33="RD","Read",IF(E33="WR","Write",IF(E33="RW","Read and Write",IF(E33="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_40_ADDR_c			: natural range 0 to 255 :=	64;	-- 0x40	- Read</v>
+        <f t="shared" ref="O33" si="9">"constant "&amp;C33&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A33&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B33&amp;CHAR(9)&amp;"- "&amp;IF(E33="RD","Read",IF(E33="WR","Write",IF(E33="RW","Read and Write",IF(E33="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_50_ADDR_c			: natural range 0 to 255 :=	80;	-- 0x50	- Read</v>
       </c>
       <c r="P33" s="11" t="str">
-        <f t="shared" ref="P33" si="8">C33&amp;"_"&amp;IF(E33="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E33="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B33&amp;CHAR(9)&amp;"- "&amp;IF(E33="RD","Read",IF(E33="WR","Write",IF(E33="RW","Read and Write",IF(E33="WC","Write and Clear",""))))</f>
-        <v>REG_RW_40_i			: in	std_logic_vector(7 downto 0);	-- 0x40	- Read</v>
-      </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P33" si="10">C33&amp;"_"&amp;IF(E33="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E33="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B33&amp;CHAR(9)&amp;"- "&amp;IF(E33="RD","Read",IF(E33="WR","Write",IF(E33="RW","Read and Write",IF(E33="WC","Write and Clear",""))))</f>
+        <v>REG_RW_50_i			: in	std_logic_vector(7 downto 0);	-- 0x50	- Read</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f>A33+16</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x50</v>
+        <v>0x60</v>
       </c>
       <c r="C35" t="str">
         <f>"REG_RW_"&amp;RIGHT(B35,2)</f>
-        <v>REG_RW_50</v>
+        <v>REG_RW_60</v>
       </c>
       <c r="D35" t="str">
         <f>C35</f>
-        <v>REG_RW_50</v>
+        <v>REG_RW_60</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="15" t="str">
         <f>D35</f>
-        <v>REG_RW_50</v>
+        <v>REG_RW_60</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2211,41 +2213,41 @@
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="O35" s="10" t="str">
-        <f t="shared" ref="O35" si="9">"constant "&amp;C35&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A35&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B35&amp;CHAR(9)&amp;"- "&amp;IF(E35="RD","Read",IF(E35="WR","Write",IF(E35="RW","Read and Write",IF(E35="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_50_ADDR_c			: natural range 0 to 255 :=	80;	-- 0x50	- Read</v>
+        <f t="shared" ref="O35" si="11">"constant "&amp;C35&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A35&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B35&amp;CHAR(9)&amp;"- "&amp;IF(E35="RD","Read",IF(E35="WR","Write",IF(E35="RW","Read and Write",IF(E35="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_60_ADDR_c			: natural range 0 to 255 :=	96;	-- 0x60	- Read</v>
       </c>
       <c r="P35" s="11" t="str">
-        <f t="shared" ref="P35" si="10">C35&amp;"_"&amp;IF(E35="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E35="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B35&amp;CHAR(9)&amp;"- "&amp;IF(E35="RD","Read",IF(E35="WR","Write",IF(E35="RW","Read and Write",IF(E35="WC","Write and Clear",""))))</f>
-        <v>REG_RW_50_i			: in	std_logic_vector(7 downto 0);	-- 0x50	- Read</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P35" si="12">C35&amp;"_"&amp;IF(E35="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E35="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B35&amp;CHAR(9)&amp;"- "&amp;IF(E35="RD","Read",IF(E35="WR","Write",IF(E35="RW","Read and Write",IF(E35="WC","Write and Clear",""))))</f>
+        <v>REG_RW_60_i			: in	std_logic_vector(7 downto 0);	-- 0x60	- Read</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f>A35+16</f>
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x60</v>
+        <v>0x70</v>
       </c>
       <c r="C37" t="str">
         <f>"REG_RW_"&amp;RIGHT(B37,2)</f>
-        <v>REG_RW_60</v>
+        <v>REG_RW_70</v>
       </c>
       <c r="D37" t="str">
         <f>C37</f>
-        <v>REG_RW_60</v>
+        <v>REG_RW_70</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="15" t="str">
         <f>D37</f>
-        <v>REG_RW_60</v>
+        <v>REG_RW_70</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -2255,41 +2257,41 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="O37" s="10" t="str">
-        <f t="shared" ref="O37" si="11">"constant "&amp;C37&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A37&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B37&amp;CHAR(9)&amp;"- "&amp;IF(E37="RD","Read",IF(E37="WR","Write",IF(E37="RW","Read and Write",IF(E37="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_60_ADDR_c			: natural range 0 to 255 :=	96;	-- 0x60	- Read</v>
+        <f t="shared" ref="O37" si="13">"constant "&amp;C37&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A37&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B37&amp;CHAR(9)&amp;"- "&amp;IF(E37="RD","Read",IF(E37="WR","Write",IF(E37="RW","Read and Write",IF(E37="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_70_ADDR_c			: natural range 0 to 255 :=	112;	-- 0x70	- Read</v>
       </c>
       <c r="P37" s="11" t="str">
-        <f t="shared" ref="P37" si="12">C37&amp;"_"&amp;IF(E37="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E37="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B37&amp;CHAR(9)&amp;"- "&amp;IF(E37="RD","Read",IF(E37="WR","Write",IF(E37="RW","Read and Write",IF(E37="WC","Write and Clear",""))))</f>
-        <v>REG_RW_60_i			: in	std_logic_vector(7 downto 0);	-- 0x60	- Read</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P37" si="14">C37&amp;"_"&amp;IF(E37="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E37="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B37&amp;CHAR(9)&amp;"- "&amp;IF(E37="RD","Read",IF(E37="WR","Write",IF(E37="RW","Read and Write",IF(E37="WC","Write and Clear",""))))</f>
+        <v>REG_RW_70_i			: in	std_logic_vector(7 downto 0);	-- 0x70	- Read</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f>A37+16</f>
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x70</v>
+        <v>0x80</v>
       </c>
       <c r="C39" t="str">
         <f>"REG_RW_"&amp;RIGHT(B39,2)</f>
-        <v>REG_RW_70</v>
+        <v>REG_RW_80</v>
       </c>
       <c r="D39" t="str">
         <f>C39</f>
-        <v>REG_RW_70</v>
+        <v>REG_RW_80</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="15" t="str">
         <f>D39</f>
-        <v>REG_RW_70</v>
+        <v>REG_RW_80</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -2299,41 +2301,41 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="O39" s="10" t="str">
-        <f t="shared" ref="O39" si="13">"constant "&amp;C39&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A39&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B39&amp;CHAR(9)&amp;"- "&amp;IF(E39="RD","Read",IF(E39="WR","Write",IF(E39="RW","Read and Write",IF(E39="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_70_ADDR_c			: natural range 0 to 255 :=	112;	-- 0x70	- Read</v>
+        <f t="shared" ref="O39" si="15">"constant "&amp;C39&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A39&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B39&amp;CHAR(9)&amp;"- "&amp;IF(E39="RD","Read",IF(E39="WR","Write",IF(E39="RW","Read and Write",IF(E39="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_80_ADDR_c			: natural range 0 to 255 :=	128;	-- 0x80	- Read</v>
       </c>
       <c r="P39" s="11" t="str">
-        <f t="shared" ref="P39" si="14">C39&amp;"_"&amp;IF(E39="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E39="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B39&amp;CHAR(9)&amp;"- "&amp;IF(E39="RD","Read",IF(E39="WR","Write",IF(E39="RW","Read and Write",IF(E39="WC","Write and Clear",""))))</f>
-        <v>REG_RW_70_i			: in	std_logic_vector(7 downto 0);	-- 0x70	- Read</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P39" si="16">C39&amp;"_"&amp;IF(E39="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E39="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B39&amp;CHAR(9)&amp;"- "&amp;IF(E39="RD","Read",IF(E39="WR","Write",IF(E39="RW","Read and Write",IF(E39="WC","Write and Clear",""))))</f>
+        <v>REG_RW_80_i			: in	std_logic_vector(7 downto 0);	-- 0x80	- Read</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f>A39+16</f>
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x80</v>
+        <v>0x90</v>
       </c>
       <c r="C41" t="str">
         <f>"REG_RW_"&amp;RIGHT(B41,2)</f>
-        <v>REG_RW_80</v>
+        <v>REG_RW_90</v>
       </c>
       <c r="D41" t="str">
         <f>C41</f>
-        <v>REG_RW_80</v>
+        <v>REG_RW_90</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="15" t="str">
         <f>D41</f>
-        <v>REG_RW_80</v>
+        <v>REG_RW_90</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -2343,41 +2345,41 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="O41" s="10" t="str">
-        <f t="shared" ref="O41" si="15">"constant "&amp;C41&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A41&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B41&amp;CHAR(9)&amp;"- "&amp;IF(E41="RD","Read",IF(E41="WR","Write",IF(E41="RW","Read and Write",IF(E41="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_80_ADDR_c			: natural range 0 to 255 :=	128;	-- 0x80	- Read</v>
+        <f t="shared" ref="O41" si="17">"constant "&amp;C41&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A41&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B41&amp;CHAR(9)&amp;"- "&amp;IF(E41="RD","Read",IF(E41="WR","Write",IF(E41="RW","Read and Write",IF(E41="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_90_ADDR_c			: natural range 0 to 255 :=	144;	-- 0x90	- Read</v>
       </c>
       <c r="P41" s="11" t="str">
-        <f t="shared" ref="P41" si="16">C41&amp;"_"&amp;IF(E41="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E41="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B41&amp;CHAR(9)&amp;"- "&amp;IF(E41="RD","Read",IF(E41="WR","Write",IF(E41="RW","Read and Write",IF(E41="WC","Write and Clear",""))))</f>
-        <v>REG_RW_80_i			: in	std_logic_vector(7 downto 0);	-- 0x80	- Read</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P41" si="18">C41&amp;"_"&amp;IF(E41="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E41="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B41&amp;CHAR(9)&amp;"- "&amp;IF(E41="RD","Read",IF(E41="WR","Write",IF(E41="RW","Read and Write",IF(E41="WC","Write and Clear",""))))</f>
+        <v>REG_RW_90_i			: in	std_logic_vector(7 downto 0);	-- 0x90	- Read</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f>A41+16</f>
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x90</v>
+        <v>0xA0</v>
       </c>
       <c r="C43" t="str">
         <f>"REG_RW_"&amp;RIGHT(B43,2)</f>
-        <v>REG_RW_90</v>
+        <v>REG_RW_A0</v>
       </c>
       <c r="D43" t="str">
         <f>C43</f>
-        <v>REG_RW_90</v>
+        <v>REG_RW_A0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="15" t="str">
         <f>D43</f>
-        <v>REG_RW_90</v>
+        <v>REG_RW_A0</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -2387,41 +2389,41 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="O43" s="10" t="str">
-        <f t="shared" ref="O43" si="17">"constant "&amp;C43&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A43&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B43&amp;CHAR(9)&amp;"- "&amp;IF(E43="RD","Read",IF(E43="WR","Write",IF(E43="RW","Read and Write",IF(E43="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_90_ADDR_c			: natural range 0 to 255 :=	144;	-- 0x90	- Read</v>
+        <f t="shared" ref="O43" si="19">"constant "&amp;C43&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A43&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B43&amp;CHAR(9)&amp;"- "&amp;IF(E43="RD","Read",IF(E43="WR","Write",IF(E43="RW","Read and Write",IF(E43="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_A0_ADDR_c			: natural range 0 to 255 :=	160;	-- 0xA0	- Read</v>
       </c>
       <c r="P43" s="11" t="str">
-        <f t="shared" ref="P43" si="18">C43&amp;"_"&amp;IF(E43="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E43="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B43&amp;CHAR(9)&amp;"- "&amp;IF(E43="RD","Read",IF(E43="WR","Write",IF(E43="RW","Read and Write",IF(E43="WC","Write and Clear",""))))</f>
-        <v>REG_RW_90_i			: in	std_logic_vector(7 downto 0);	-- 0x90	- Read</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P43" si="20">C43&amp;"_"&amp;IF(E43="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E43="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B43&amp;CHAR(9)&amp;"- "&amp;IF(E43="RD","Read",IF(E43="WR","Write",IF(E43="RW","Read and Write",IF(E43="WC","Write and Clear",""))))</f>
+        <v>REG_RW_A0_i			: in	std_logic_vector(7 downto 0);	-- 0xA0	- Read</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f>A43+16</f>
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0xA0</v>
+        <v>0xB0</v>
       </c>
       <c r="C45" t="str">
         <f>"REG_RW_"&amp;RIGHT(B45,2)</f>
-        <v>REG_RW_A0</v>
+        <v>REG_RW_B0</v>
       </c>
       <c r="D45" t="str">
         <f>C45</f>
-        <v>REG_RW_A0</v>
+        <v>REG_RW_B0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="15" t="str">
         <f>D45</f>
-        <v>REG_RW_A0</v>
+        <v>REG_RW_B0</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -2431,41 +2433,41 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="O45" s="10" t="str">
-        <f t="shared" ref="O45" si="19">"constant "&amp;C45&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A45&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B45&amp;CHAR(9)&amp;"- "&amp;IF(E45="RD","Read",IF(E45="WR","Write",IF(E45="RW","Read and Write",IF(E45="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_A0_ADDR_c			: natural range 0 to 255 :=	160;	-- 0xA0	- Read</v>
+        <f t="shared" ref="O45" si="21">"constant "&amp;C45&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A45&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B45&amp;CHAR(9)&amp;"- "&amp;IF(E45="RD","Read",IF(E45="WR","Write",IF(E45="RW","Read and Write",IF(E45="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_B0_ADDR_c			: natural range 0 to 255 :=	176;	-- 0xB0	- Read</v>
       </c>
       <c r="P45" s="11" t="str">
-        <f t="shared" ref="P45" si="20">C45&amp;"_"&amp;IF(E45="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E45="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B45&amp;CHAR(9)&amp;"- "&amp;IF(E45="RD","Read",IF(E45="WR","Write",IF(E45="RW","Read and Write",IF(E45="WC","Write and Clear",""))))</f>
-        <v>REG_RW_A0_i			: in	std_logic_vector(7 downto 0);	-- 0xA0	- Read</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P45" si="22">C45&amp;"_"&amp;IF(E45="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E45="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B45&amp;CHAR(9)&amp;"- "&amp;IF(E45="RD","Read",IF(E45="WR","Write",IF(E45="RW","Read and Write",IF(E45="WC","Write and Clear",""))))</f>
+        <v>REG_RW_B0_i			: in	std_logic_vector(7 downto 0);	-- 0xB0	- Read</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f>A45+16</f>
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0xB0</v>
+        <v>0xC0</v>
       </c>
       <c r="C47" t="str">
         <f>"REG_RW_"&amp;RIGHT(B47,2)</f>
-        <v>REG_RW_B0</v>
+        <v>REG_RW_C0</v>
       </c>
       <c r="D47" t="str">
         <f>C47</f>
-        <v>REG_RW_B0</v>
+        <v>REG_RW_C0</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="15" t="str">
         <f>D47</f>
-        <v>REG_RW_B0</v>
+        <v>REG_RW_C0</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -2475,41 +2477,41 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="O47" s="10" t="str">
-        <f t="shared" ref="O47" si="21">"constant "&amp;C47&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A47&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B47&amp;CHAR(9)&amp;"- "&amp;IF(E47="RD","Read",IF(E47="WR","Write",IF(E47="RW","Read and Write",IF(E47="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_B0_ADDR_c			: natural range 0 to 255 :=	176;	-- 0xB0	- Read</v>
+        <f t="shared" ref="O47" si="23">"constant "&amp;C47&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A47&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B47&amp;CHAR(9)&amp;"- "&amp;IF(E47="RD","Read",IF(E47="WR","Write",IF(E47="RW","Read and Write",IF(E47="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_C0_ADDR_c			: natural range 0 to 255 :=	192;	-- 0xC0	- Read</v>
       </c>
       <c r="P47" s="11" t="str">
-        <f t="shared" ref="P47" si="22">C47&amp;"_"&amp;IF(E47="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E47="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B47&amp;CHAR(9)&amp;"- "&amp;IF(E47="RD","Read",IF(E47="WR","Write",IF(E47="RW","Read and Write",IF(E47="WC","Write and Clear",""))))</f>
-        <v>REG_RW_B0_i			: in	std_logic_vector(7 downto 0);	-- 0xB0	- Read</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P47" si="24">C47&amp;"_"&amp;IF(E47="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E47="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B47&amp;CHAR(9)&amp;"- "&amp;IF(E47="RD","Read",IF(E47="WR","Write",IF(E47="RW","Read and Write",IF(E47="WC","Write and Clear",""))))</f>
+        <v>REG_RW_C0_i			: in	std_logic_vector(7 downto 0);	-- 0xC0	- Read</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f>A47+16</f>
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0xC0</v>
+        <v>0xD0</v>
       </c>
       <c r="C49" t="str">
         <f>"REG_RW_"&amp;RIGHT(B49,2)</f>
-        <v>REG_RW_C0</v>
+        <v>REG_RW_D0</v>
       </c>
       <c r="D49" t="str">
         <f>C49</f>
-        <v>REG_RW_C0</v>
+        <v>REG_RW_D0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="15" t="str">
         <f>D49</f>
-        <v>REG_RW_C0</v>
+        <v>REG_RW_D0</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -2519,41 +2521,43 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="O49" s="10" t="str">
-        <f t="shared" ref="O49" si="23">"constant "&amp;C49&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A49&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B49&amp;CHAR(9)&amp;"- "&amp;IF(E49="RD","Read",IF(E49="WR","Write",IF(E49="RW","Read and Write",IF(E49="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_C0_ADDR_c			: natural range 0 to 255 :=	192;	-- 0xC0	- Read</v>
+        <f t="shared" ref="O49" si="25">"constant "&amp;C49&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A49&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B49&amp;CHAR(9)&amp;"- "&amp;IF(E49="RD","Read",IF(E49="WR","Write",IF(E49="RW","Read and Write",IF(E49="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_D0_ADDR_c			: natural range 0 to 255 :=	208;	-- 0xD0	- Read</v>
       </c>
       <c r="P49" s="11" t="str">
-        <f t="shared" ref="P49" si="24">C49&amp;"_"&amp;IF(E49="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E49="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B49&amp;CHAR(9)&amp;"- "&amp;IF(E49="RD","Read",IF(E49="WR","Write",IF(E49="RW","Read and Write",IF(E49="WC","Write and Clear",""))))</f>
-        <v>REG_RW_C0_i			: in	std_logic_vector(7 downto 0);	-- 0xC0	- Read</v>
+        <f t="shared" ref="P49" si="26">C49&amp;"_"&amp;IF(E49="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E49="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B49&amp;CHAR(9)&amp;"- "&amp;IF(E49="RD","Read",IF(E49="WR","Write",IF(E49="RW","Read and Write",IF(E49="WC","Write and Clear",""))))</f>
+        <v>REG_RW_D0_i			: in	std_logic_vector(7 downto 0);	-- 0xD0	- Read</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>A49+16</f>
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0xD0</v>
+        <v>0xE0</v>
       </c>
       <c r="C51" t="str">
         <f>"REG_RW_"&amp;RIGHT(B51,2)</f>
-        <v>REG_RW_D0</v>
+        <v>REG_RW_E0</v>
       </c>
       <c r="D51" t="str">
         <f>C51</f>
-        <v>REG_RW_D0</v>
+        <v>REG_RW_E0</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="15" t="str">
         <f>D51</f>
-        <v>REG_RW_D0</v>
+        <v>REG_RW_E0</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -2563,16 +2567,15 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="O51" s="10" t="str">
-        <f t="shared" ref="O51" si="25">"constant "&amp;C51&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A51&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B51&amp;CHAR(9)&amp;"- "&amp;IF(E51="RD","Read",IF(E51="WR","Write",IF(E51="RW","Read and Write",IF(E51="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_D0_ADDR_c			: natural range 0 to 255 :=	208;	-- 0xD0	- Read</v>
+        <f t="shared" ref="O51" si="27">"constant "&amp;C51&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A51&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B51&amp;CHAR(9)&amp;"- "&amp;IF(E51="RD","Read",IF(E51="WR","Write",IF(E51="RW","Read and Write",IF(E51="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_E0_ADDR_c			: natural range 0 to 255 :=	224;	-- 0xE0	- Read</v>
       </c>
       <c r="P51" s="11" t="str">
-        <f t="shared" ref="P51" si="26">C51&amp;"_"&amp;IF(E51="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E51="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B51&amp;CHAR(9)&amp;"- "&amp;IF(E51="RD","Read",IF(E51="WR","Write",IF(E51="RW","Read and Write",IF(E51="WC","Write and Clear",""))))</f>
-        <v>REG_RW_D0_i			: in	std_logic_vector(7 downto 0);	-- 0xD0	- Read</v>
+        <f t="shared" ref="P51" si="28">C51&amp;"_"&amp;IF(E51="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E51="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B51&amp;CHAR(9)&amp;"- "&amp;IF(E51="RD","Read",IF(E51="WR","Write",IF(E51="RW","Read and Write",IF(E51="WC","Write and Clear",""))))</f>
+        <v>REG_RW_E0_i			: in	std_logic_vector(7 downto 0);	-- 0xE0	- Read</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
       <c r="C52"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2580,26 +2583,26 @@
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f>A51+16</f>
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0xE0</v>
+        <v>0xF0</v>
       </c>
       <c r="C53" t="str">
         <f>"REG_RW_"&amp;RIGHT(B53,2)</f>
-        <v>REG_RW_E0</v>
+        <v>REG_RW_F0</v>
       </c>
       <c r="D53" t="str">
         <f>C53</f>
-        <v>REG_RW_E0</v>
+        <v>REG_RW_F0</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="15" t="str">
         <f>D53</f>
-        <v>REG_RW_E0</v>
+        <v>REG_RW_F0</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -2609,75 +2612,30 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="O53" s="10" t="str">
-        <f t="shared" ref="O53" si="27">"constant "&amp;C53&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A53&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B53&amp;CHAR(9)&amp;"- "&amp;IF(E53="RD","Read",IF(E53="WR","Write",IF(E53="RW","Read and Write",IF(E53="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_E0_ADDR_c			: natural range 0 to 255 :=	224;	-- 0xE0	- Read</v>
+        <f t="shared" ref="O53" si="29">"constant "&amp;C53&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A53&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B53&amp;CHAR(9)&amp;"- "&amp;IF(E53="RD","Read",IF(E53="WR","Write",IF(E53="RW","Read and Write",IF(E53="WC","Write and Clear",""))))</f>
+        <v>constant REG_RW_F0_ADDR_c			: natural range 0 to 255 :=	240;	-- 0xF0	- Read</v>
       </c>
       <c r="P53" s="11" t="str">
-        <f t="shared" ref="P53" si="28">C53&amp;"_"&amp;IF(E53="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E53="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B53&amp;CHAR(9)&amp;"- "&amp;IF(E53="RD","Read",IF(E53="WR","Write",IF(E53="RW","Read and Write",IF(E53="WC","Write and Clear",""))))</f>
-        <v>REG_RW_E0_i			: in	std_logic_vector(7 downto 0);	-- 0xE0	- Read</v>
+        <f t="shared" ref="P53" si="30">C53&amp;"_"&amp;IF(E53="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E53="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B53&amp;CHAR(9)&amp;"- "&amp;IF(E53="RD","Read",IF(E53="WR","Write",IF(E53="RW","Read and Write",IF(E53="WC","Write and Clear",""))))</f>
+        <v>REG_RW_F0_i			: in	std_logic_vector(7 downto 0);	-- 0xF0	- Read</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C54"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f>A53+16</f>
-        <v>240</v>
-      </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0xF0</v>
-      </c>
-      <c r="C55" t="str">
-        <f>"REG_RW_"&amp;RIGHT(B55,2)</f>
-        <v>REG_RW_F0</v>
-      </c>
-      <c r="D55" t="str">
-        <f>C55</f>
-        <v>REG_RW_F0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="15" t="str">
-        <f>D55</f>
-        <v>REG_RW_F0</v>
-      </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="O55" s="10" t="str">
-        <f t="shared" ref="O55" si="29">"constant "&amp;C55&amp;"_ADDR_c"&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": natural range 0 to 255 :="&amp;CHAR(9)&amp;A55&amp;";"&amp;CHAR(9)&amp;"-- "&amp;B55&amp;CHAR(9)&amp;"- "&amp;IF(E55="RD","Read",IF(E55="WR","Write",IF(E55="RW","Read and Write",IF(E55="WC","Write and Clear",""))))</f>
-        <v>constant REG_RW_F0_ADDR_c			: natural range 0 to 255 :=	240;	-- 0xF0	- Read</v>
-      </c>
-      <c r="P55" s="11" t="str">
-        <f t="shared" ref="P55" si="30">C55&amp;"_"&amp;IF(E55="RD","i","o")&amp;CHAR(9)&amp;CHAR(9)&amp;CHAR(9)&amp;": "&amp;IF(E55="RD","in","out")&amp;CHAR(9)&amp;"std_logic_vector(7 downto 0);"&amp;CHAR(9)&amp;"-- "&amp;B55&amp;CHAR(9)&amp;"- "&amp;IF(E55="RD","Read",IF(E55="WR","Write",IF(E55="RW","Read and Write",IF(E55="WC","Write and Clear",""))))</f>
-        <v>REG_RW_F0_i			: in	std_logic_vector(7 downto 0);	-- 0xF0	- Read</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F43:M43"/>
     <mergeCell ref="F45:M45"/>
     <mergeCell ref="F47:M47"/>
     <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F33:M33"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F37:M37"/>
     <mergeCell ref="F39:M39"/>
     <mergeCell ref="F41:M41"/>
-    <mergeCell ref="F43:M43"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="F22:M22"/>
@@ -2690,7 +2648,7 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="F17:M17"/>
     <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F51:M51"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="F23:M23"/>
@@ -2702,7 +2660,7 @@
     <mergeCell ref="F7:M7"/>
     <mergeCell ref="F27:M27"/>
     <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="F31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
